--- a/biology/Botanique/Amana_(Liliaceae)/Amana_(Liliaceae).xlsx
+++ b/biology/Botanique/Amana_(Liliaceae)/Amana_(Liliaceae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amana est un genre de plantes à fleurs de la famille des Liliaceae. Ce sont des plantes bulbeuses étroitement apparentées aux tulipes et inclus dans le genre Tulipa par certains auteurs. Les espèce du genre Amana sont rencontrées en Chine, au Japon et en Corée[2],[3]. Actuellement (mars 2024), la World Checklist of Selected Plant Families (liste mondiale des familles de plantes sélectionnées) des jardins botaniques royaux de Kew, reconnaît six espèces[1], dont trois étaient autrefois placées dans le genre Tulipa : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amana est un genre de plantes à fleurs de la famille des Liliaceae. Ce sont des plantes bulbeuses étroitement apparentées aux tulipes et inclus dans le genre Tulipa par certains auteurs. Les espèce du genre Amana sont rencontrées en Chine, au Japon et en Corée,. Actuellement (mars 2024), la World Checklist of Selected Plant Families (liste mondiale des familles de plantes sélectionnées) des jardins botaniques royaux de Kew, reconnaît six espèces, dont trois étaient autrefois placées dans le genre Tulipa : 
 </t>
         </is>
       </c>
